--- a/patterns.xlsx
+++ b/patterns.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Var1</t>
   </si>
@@ -50,13 +50,10 @@
     <t xml:space="preserve">null</t>
   </si>
   <si>
-    <t xml:space="preserve">spaceships</t>
+    <t xml:space="preserve">osc</t>
   </si>
   <si>
     <t xml:space="preserve">st</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osc</t>
   </si>
 </sst>
 </file>
@@ -700,7 +697,7 @@
         <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1257,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -2415,7 +2412,7 @@
         <v>12</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2517,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -2587,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2622,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -3010,7 +3007,7 @@
         <v>12</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3462,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -3567,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K91" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -4092,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -4197,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K109" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
@@ -4372,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -5457,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K145" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
@@ -5565,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="K148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -6332,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6507,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -6542,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K176" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -6787,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K183" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184">
@@ -6962,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K188" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
@@ -7067,10 +7064,10 @@
         <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K191" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
@@ -7907,10 +7904,10 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -8292,10 +8289,10 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -8362,10 +8359,10 @@
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -8642,10 +8639,10 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K236" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -8887,10 +8884,10 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K243" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244">
@@ -8957,10 +8954,10 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K245" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246">
@@ -10077,10 +10074,10 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
@@ -10252,10 +10249,10 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -10462,10 +10459,10 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K288" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289">
@@ -10675,7 +10672,7 @@
         <v>12</v>
       </c>
       <c r="K294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -10812,10 +10809,10 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -11232,10 +11229,10 @@
         <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K310" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311">
@@ -11932,10 +11929,10 @@
         <v>1</v>
       </c>
       <c r="J330" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -12212,10 +12209,10 @@
         <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -12562,10 +12559,10 @@
         <v>1</v>
       </c>
       <c r="J348" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K348" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349">
@@ -12772,10 +12769,10 @@
         <v>1</v>
       </c>
       <c r="J354" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -13682,10 +13679,10 @@
         <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K380" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381">
@@ -14172,10 +14169,10 @@
         <v>1</v>
       </c>
       <c r="J394" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -14242,10 +14239,10 @@
         <v>1</v>
       </c>
       <c r="J396" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K396" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -14627,10 +14624,10 @@
         <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K407" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408">
@@ -14942,10 +14939,10 @@
         <v>1</v>
       </c>
       <c r="J416" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K416" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417">
@@ -15432,10 +15429,10 @@
         <v>1</v>
       </c>
       <c r="J430" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K430" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="431">
@@ -16135,7 +16132,7 @@
         <v>12</v>
       </c>
       <c r="K450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -16692,10 +16689,10 @@
         <v>1</v>
       </c>
       <c r="J466" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K466" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="467">
@@ -17322,10 +17319,10 @@
         <v>1</v>
       </c>
       <c r="J484" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K484" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="485">
@@ -17777,10 +17774,10 @@
         <v>1</v>
       </c>
       <c r="J497" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K497" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="498">
